--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/elasticDetailTabInnerip.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/elasticDetailTabInnerip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -317,18 +317,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>After assign private IP for the elastic network interface, you need to login virtual machine to configure private IP, click View</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Operation Guide</t>
     </r>
   </si>
@@ -341,18 +329,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Can't assign, already reach IP address quota limit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Assign Private IP</t>
     </r>
   </si>
@@ -377,18 +353,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IP type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Associated EIP</t>
     </r>
   </si>
@@ -401,18 +365,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Action</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Disassociate EIP</t>
     </r>
   </si>
@@ -425,38 +377,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Associate with EIP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Primary IP'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Release</t>
     </r>
+  </si>
+  <si>
+    <t>IP Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associate EIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary IP'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to assign new IP since the upper limit has been reached.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After assigning private IP for the elastic network interface, please login to the virtual machine to configure the private IP. Click to view</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -493,9 +445,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -839,17 +794,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -868,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
@@ -879,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -901,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -912,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -923,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -945,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -956,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -966,8 +921,8 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -978,12 +933,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B12" numberStoredAsText="1"/>
   </ignoredErrors>
